--- a/sample/current.xlsx
+++ b/sample/current.xlsx
@@ -192,6 +192,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -284,7 +285,7 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -292,14 +293,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="8.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="128.01"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
   </cols>
